--- a/Cronograma PBD (Atulizado de forma correta).xlsx
+++ b/Cronograma PBD (Atulizado de forma correta).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="88">
   <si>
     <t>Semana</t>
   </si>
@@ -376,6 +376,9 @@
   </si>
   <si>
     <t>feito</t>
+  </si>
+  <si>
+    <t>terminado10/11</t>
   </si>
 </sst>
 </file>
@@ -968,7 +971,7 @@
   <dimension ref="C3:J57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,9 +1218,11 @@
         <v>43410</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I18" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="I18" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="J18" s="10"/>
     </row>
     <row r="19" spans="3:10" x14ac:dyDescent="0.25">
@@ -1233,9 +1238,11 @@
         <v>43414</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I19" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="I19" s="15" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="20" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C20" s="9"/>
@@ -1250,9 +1257,11 @@
         <v>43414</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I20" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="I20" s="15" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="21" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C21" s="9"/>
@@ -1267,9 +1276,11 @@
         <v>43414</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I21" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I21" s="15" t="s">
+        <v>87</v>
+      </c>
       <c r="J21" s="14"/>
     </row>
     <row r="22" spans="3:10" x14ac:dyDescent="0.25">

--- a/Cronograma PBD (Atulizado de forma correta).xlsx
+++ b/Cronograma PBD (Atulizado de forma correta).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="89">
   <si>
     <t>Semana</t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t>terminado10/11</t>
+  </si>
+  <si>
+    <t>terminado 18/11</t>
   </si>
 </sst>
 </file>
@@ -970,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1298,9 +1301,11 @@
         <v>43421</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I22" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="I22" s="15" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="23" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C23" s="9"/>
@@ -1315,9 +1320,11 @@
         <v>43421</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="I23" s="15" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="24" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C24" s="9"/>
@@ -1332,9 +1339,11 @@
         <v>43421</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I24" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="25" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C25" s="9"/>
@@ -1349,9 +1358,11 @@
         <v>43421</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I25" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="I25" s="15" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="26" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C26" s="9"/>
@@ -1366,9 +1377,11 @@
         <v>43422</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I26" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="27" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C27" s="9"/>

--- a/Cronograma PBD (Atulizado de forma correta).xlsx
+++ b/Cronograma PBD (Atulizado de forma correta).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="92">
   <si>
     <t>Semana</t>
   </si>
@@ -382,6 +382,15 @@
   </si>
   <si>
     <t>terminado 18/11</t>
+  </si>
+  <si>
+    <t>Terminado 25/11</t>
+  </si>
+  <si>
+    <t>Terminando..</t>
+  </si>
+  <si>
+    <t>Terminado</t>
   </si>
 </sst>
 </file>
@@ -973,8 +982,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="D22" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1398,9 +1407,11 @@
         <v>43428</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I27" s="15"/>
+        <v>91</v>
+      </c>
+      <c r="I27" s="15" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="28" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C28" s="9"/>
@@ -1415,9 +1426,11 @@
         <v>43428</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I28" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="29" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C29" s="9"/>
@@ -1432,9 +1445,11 @@
         <v>43428</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="I29" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="30" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C30" s="9"/>
@@ -1449,7 +1464,7 @@
         <v>43428</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I30" s="7"/>
     </row>
@@ -1466,7 +1481,7 @@
         <v>43429</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="I31" s="7"/>
     </row>
